--- a/Execl/_GameConfig.xlsx
+++ b/Execl/_GameConfig.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/code/ckzc_server/Execl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/project/ckzc_client/public_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="1840" windowWidth="21740" windowHeight="19500"/>
+    <workbookView xWindow="1100" yWindow="1920" windowWidth="28080" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="GameConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,7 +34,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A69" authorId="0">
+    <comment ref="A75" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A112" authorId="0">
+    <comment ref="A117" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="418">
   <si>
     <t>描述</t>
   </si>
@@ -189,7 +189,7 @@
     <t>120</t>
   </si>
   <si>
-    <t>店铺基础产出金币数量(类型，数量)</t>
+    <t>店铺基础产出金币数量(类型，数量)（作废）</t>
   </si>
   <si>
     <t>ProductionGolds</t>
@@ -198,6 +198,15 @@
     <t>2,2</t>
   </si>
   <si>
+    <t>拆除返还百分比（100为100%，以此类推</t>
+  </si>
+  <si>
+    <t>DismantleReturn</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>(作废）库存材料单价(货币类型,价格</t>
   </si>
   <si>
@@ -243,10 +252,7 @@
     <t>PenaltyGold</t>
   </si>
   <si>
-    <t>0.00039</t>
-  </si>
-  <si>
-    <t>Interest</t>
+    <t>7,0.0016;15,0.0025;30,0.0033</t>
   </si>
   <si>
     <t>抵押率(作废）</t>
@@ -255,9 +261,15 @@
     <t>MortgageRate</t>
   </si>
   <si>
+    <t>最大存款日期（日(作废)</t>
+  </si>
+  <si>
     <t>MaxDepositDate</t>
   </si>
   <si>
+    <t>7,15,30</t>
+  </si>
+  <si>
     <t>活期日利率</t>
   </si>
   <si>
@@ -462,6 +474,36 @@
     <t>20</t>
   </si>
   <si>
+    <t>土地竞拍数量(等级，土地数量</t>
+  </si>
+  <si>
+    <t>AuctionLandNums</t>
+  </si>
+  <si>
+    <t>1,1;5,2;10,3;15;4,20,5</t>
+  </si>
+  <si>
+    <t>土地竞拍单块价格</t>
+  </si>
+  <si>
+    <t>BiddingPrice</t>
+  </si>
+  <si>
+    <t>6,100</t>
+  </si>
+  <si>
+    <t>土地每次竞拍数量</t>
+  </si>
+  <si>
+    <t>BiddingLandNums</t>
+  </si>
+  <si>
+    <t>土地竞拍失败返还比例(100,10%填10</t>
+  </si>
+  <si>
+    <t>BidFailureReturn</t>
+  </si>
+  <si>
     <t>剧情文字显示间隔(毫秒</t>
   </si>
   <si>
@@ -513,15 +555,9 @@
     <t>180</t>
   </si>
   <si>
-    <t>庄园土地购买的金币（12块）</t>
-  </si>
-  <si>
     <t>SiolMoney</t>
   </si>
   <si>
-    <t>300,600,900,1200,1500,1800,2100,2400,2700,3000,3300,3600</t>
-  </si>
-  <si>
     <t>金币兑换创客币上限</t>
   </si>
   <si>
@@ -619,6 +655,9 @@
   </si>
   <si>
     <t>MainMenu</t>
+  </si>
+  <si>
+    <t>1,2,4,21,3,18,17;2,2,4,21,3,18,17;3,2,4,21,3,18,17;4,2,4,21,3,18,17;5,2,4,21,3,18,17;6,2,4,21,3,18,17;7,2,4,21,3,18,17;8,2,4,21,3,18,17;9,2,4,21,3,18,17;10,2,4,21,3,18,17;11,2,4,21,3,18,17;12,2,4,21,3,18,17;</t>
   </si>
   <si>
     <t>水果机单抽</t>
@@ -1054,9 +1093,6 @@
     <t>人才市场刷新时长(分钟</t>
   </si>
   <si>
-    <t>TalentMarketTime</t>
-  </si>
-  <si>
     <t>店铺主管雇佣时长(分钟</t>
   </si>
   <si>
@@ -1066,30 +1102,27 @@
     <t>4320</t>
   </si>
   <si>
+    <t>被雇佣奖励费率</t>
+  </si>
+  <si>
+    <t>HireRewardRate</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>店铺主管积分结算时长(分钟作废</t>
+  </si>
+  <si>
     <t>ShopMasterScoreTime</t>
   </si>
   <si>
-    <t>店铺拍卖开始时间（星期天填0）(星期</t>
-  </si>
-  <si>
-    <t>ShopAhStart</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>店铺拍卖开始时间(多少点</t>
   </si>
   <si>
     <t>ShopAhStartHour</t>
   </si>
   <si>
-    <t>店铺拍卖结束时间（星期天填0）(星期</t>
-  </si>
-  <si>
-    <t>ShopAhEnd</t>
-  </si>
-  <si>
     <t>店铺拍卖结束时间(多少点</t>
   </si>
   <si>
@@ -1114,9 +1147,6 @@
     <t>ShopBiddingNumChange</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>店铺收成时间1（小时）（金币）（作废）</t>
   </si>
   <si>
@@ -1216,6 +1246,9 @@
     <t>NotChangeFurniturn</t>
   </si>
   <si>
+    <t>9,21,1,2,8</t>
+  </si>
+  <si>
     <t>最终还款日期</t>
   </si>
   <si>
@@ -1267,6 +1300,9 @@
     <t>Roomtype</t>
   </si>
   <si>
+    <t>1,初级公寓;2,普通公寓;3,高级公寓;4,华丽公寓;5,豪华公寓;6,普通别墅;7,豪华别墅;8,奢华别墅</t>
+  </si>
+  <si>
     <t>店铺种类对战斗力加成</t>
   </si>
   <si>
@@ -1322,6 +1358,9 @@
   </si>
   <si>
     <t>101</t>
+  </si>
+  <si>
+    <t>贷款的最低额度</t>
   </si>
   <si>
     <t>MinimumLoanMoney</t>
@@ -1400,39 +1439,69 @@
     <t>1,7</t>
   </si>
   <si>
-    <t>9,21,1,2,8</t>
+    <t>每日航行次数上限</t>
+  </si>
+  <si>
+    <t>TrafficNumLap</t>
+  </si>
+  <si>
+    <t>非绑金每日最低提现上限</t>
+  </si>
+  <si>
+    <t>GetRmbMin</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>非绑金每日最高提现上限</t>
+  </si>
+  <si>
+    <t>GetRmbMax</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>非绑金提现手续费</t>
+  </si>
+  <si>
+    <t>GetRmbFee</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>非绑金提现所需身价值</t>
+  </si>
+  <si>
+    <t>GetRmbIncome</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>非绑金兑换app余额比例(余额，非绑金</t>
+  </si>
+  <si>
+    <t>GoldExRmb</t>
+  </si>
+  <si>
+    <t>身价低于多少无法贷款</t>
+  </si>
+  <si>
+    <t>BodyValueLimit</t>
+  </si>
+  <si>
+    <t>人才市场刷新人数</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,4,21,3,18,17;2,2,4,21,3,18,17;3,2,4,21,3,18,17;4,2,4,21,3,18,17;5,2,4,21,3,18,17;6,2,4,21,3,18,17;7,2,4,21,3,18,17;8,2,4,21,3,18,17;9,2,4,21,3,18,17;10,2,4,21,3,18,17;11,2,4,21,3,18,17;12,2,4,21,3,18,17;</t>
+    <t>TalentMarketTime</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>每日航行次数上限</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrafficNumLap</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,初级公寓;2,普通公寓;3,高级公寓;4,华丽公寓;5,豪华公寓;6,普通别墅;7,豪华别墅;8,奢华别墅</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>非绑金每日最低提现上限</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>非绑金每日最高提现上限</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>非绑金提现手续费</t>
+    <t>TalentMarketPersonCount</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1440,43 +1509,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>10000</t>
+    <t>9</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1000000</t>
+    <t>庄园土地解锁等级，购买的金币（12块）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>GetRmbMin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetRmbMax</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.05</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetRmbFee</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>贷款的最低额度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,15,30</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
+    <t>5,300;7,600;9,900;11,1200;13,1500;15,1800;17,2100;19,2400;21,2700;23,3000;25,3300;27,3600</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1488,43 +1529,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>最大存款日期（日(作废)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>非绑金提现所需身价值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetRmbIncome</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldExRmb</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>非绑金兑换app余额比例(余额，非绑金</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺主管积分结算时长(分钟作废</t>
+    <t>Interest</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1548,7 +1553,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1612,13 +1617,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1660,6 +1658,7 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1668,7 +1667,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1987,547 +1985,547 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="61.5" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="38.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61.5" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="6" t="s">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="6">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M30" s="9"/>
-    </row>
-    <row r="31" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="6">
+      <c r="B33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="5" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+      <c r="B36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>93</v>
       </c>
@@ -2537,1611 +2535,1709 @@
       <c r="C38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="2">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+      <c r="C46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="1" t="s">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="8">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="7" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="C50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="8" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="B52" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="2" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="2" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="2" t="s">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="5" t="s">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B61" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="6" t="s">
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="5" t="s">
+      <c r="C64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B63" s="5" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="6" t="s">
+      <c r="B65" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="5" t="s">
+      <c r="C65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B66" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="5" t="s">
+      <c r="C66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B65" s="5" t="s">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="6" t="s">
+      <c r="B67" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
+      <c r="C67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B66" s="1" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
+      <c r="C68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B67" s="1" t="s">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
+      <c r="C69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B68" s="1" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
+      <c r="C70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
+      <c r="C71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B70" s="1" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
+      <c r="C72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B71" s="1" t="s">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
+      <c r="C73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B72" s="1" t="s">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="2" t="s">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="2" t="s">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="2" t="s">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="11" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="11" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D81" s="2" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="2" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="12" t="s">
+      <c r="B88" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="2" t="s">
+    </row>
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="12" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="12" t="s">
+      <c r="B89" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="12" t="s">
+      <c r="C90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B89" s="1" t="s">
+    </row>
+    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="12" t="s">
+      <c r="C91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B90" s="1" t="s">
+    </row>
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="12" t="s">
+      <c r="B92" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="13" t="s">
+    </row>
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B93" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="12" t="s">
+      <c r="C93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B93" s="1" t="s">
+    </row>
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="12" t="s">
+      <c r="B94" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="2" t="s">
+    </row>
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="12" t="s">
+      <c r="B95" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="C96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97" s="12" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="12" t="s">
+      <c r="C98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="C99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="12" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="2" t="s">
+    </row>
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" s="2" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A144" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>402</v>
+      <c r="B159" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4153,7 +4249,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4166,7 +4262,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Execl/_GameConfig.xlsx
+++ b/Execl/_GameConfig.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1920" windowWidth="28080" windowHeight="13060"/>
+    <workbookView xWindow="11080" yWindow="3140" windowWidth="28080" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="GameConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,10 +31,36 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>陈弘毅</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A75" authorId="0">
+    <comment ref="A41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>陈弘毅:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参数1,区域id
+参数2,区域配置表id</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A75" authorId="1">
       <text>
         <r>
           <rPr>
@@ -59,7 +85,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="A117" authorId="0">
+    <comment ref="A115" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>陈弘毅:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+货币id
+竞拍价格
+增加的身价
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A118" authorId="1">
       <text>
         <r>
           <rPr>
@@ -88,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="422">
   <si>
     <t>描述</t>
   </si>
@@ -255,6 +308,15 @@
     <t>7,0.0016;15,0.0025;30,0.0033</t>
   </si>
   <si>
+    <t>存款利息(日，利率</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>7,0.0011;15,0.0013;30,0.0015</t>
+  </si>
+  <si>
     <t>抵押率(作废）</t>
   </si>
   <si>
@@ -477,19 +539,7 @@
     <t>土地竞拍数量(等级，土地数量</t>
   </si>
   <si>
-    <t>AuctionLandNums</t>
-  </si>
-  <si>
     <t>1,1;5,2;10,3;15;4,20,5</t>
-  </si>
-  <si>
-    <t>土地竞拍单块价格</t>
-  </si>
-  <si>
-    <t>BiddingPrice</t>
-  </si>
-  <si>
-    <t>6,100</t>
   </si>
   <si>
     <t>土地每次竞拍数量</t>
@@ -1513,23 +1563,41 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>庄园土地解锁等级，购买的金币（12块）</t>
+    <t>AuctionLandNums</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>5,300;7,600;9,900;11,1200;13,1500;15,1800;17,2100;19,2400;21,2700;23,3000;25,3300;27,3600</t>
+    <t>5,6,300;7,6,600;9,6,900;11,6,1200;13,6,1500;15,6,1800;17,6,2100;19,6,2400;21,6,2700;23,6,3000;25,6,3300;27,6,3600</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>7,0.0011;15,0.0013;30,0.0015</t>
+    <t>庄园土地解锁等级，购买的金币（12块）(等级，货币id，货币数量</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>存款利息(日，利率</t>
+    <t>BiddingPrice</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Interest</t>
+    <t>6,5000,5000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地竞拍价格和身价(货币类型，货币数量，身价值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图区域</t>
+  </si>
+  <si>
+    <t>MapZone</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2;2,3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1537,15 +1605,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>Field</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>Type</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Field</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1553,7 +1621,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1616,6 +1684,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1985,36 +2066,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M159"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="62.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="61.5" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2288,24 +2369,24 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>412</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>413</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>411</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>44</v>
@@ -2316,38 +2397,38 @@
     </row>
     <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
@@ -2358,10 +2439,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
@@ -2372,10 +2453,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
@@ -2386,24 +2467,24 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>14</v>
@@ -2414,10 +2495,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>14</v>
@@ -2428,10 +2509,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>14</v>
@@ -2442,39 +2523,39 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>14</v>
@@ -2485,10 +2566,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>14</v>
@@ -2499,24 +2580,24 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>14</v>
@@ -2527,10 +2608,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>14</v>
@@ -2541,10 +2622,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>14</v>
@@ -2555,100 +2636,100 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>100</v>
+        <v>414</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>101</v>
+        <v>415</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>99</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="3">
-        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="3">
-        <v>60000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="3">
-        <v>20</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>112</v>
+      <c r="D46" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
@@ -2673,38 +2754,38 @@
         <v>117</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>122</v>
+      <c r="D50" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -2718,21 +2799,21 @@
         <v>14</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -2743,9 +2824,9 @@
         <v>129</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2754,49 +2835,49 @@
         <v>131</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="C55" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="C56" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>14</v>
@@ -2807,332 +2888,332 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="C70" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="C78" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>6</v>
@@ -3143,10 +3224,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>14</v>
@@ -3157,10 +3238,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>209</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>14</v>
@@ -3171,52 +3252,52 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="C84" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="C85" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>44</v>
@@ -3227,136 +3308,136 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="C96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>14</v>
@@ -3367,10 +3448,10 @@
     </row>
     <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>14</v>
@@ -3381,38 +3462,38 @@
     </row>
     <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="C99" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>6</v>
@@ -3423,52 +3504,52 @@
     </row>
     <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
@@ -3479,52 +3560,52 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>14</v>
@@ -3535,702 +3616,716 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="C112" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B113" s="7" t="s">
-        <v>286</v>
-      </c>
       <c r="C113" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>288</v>
-      </c>
       <c r="C114" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>289</v>
+        <v>413</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>290</v>
+        <v>411</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>291</v>
+        <v>416</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>292</v>
+        <v>412</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" s="3" t="s">
+      <c r="C117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>27</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>218</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>309</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="C127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D126" s="3" t="s">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C128" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>22</v>
+        <v>327</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>333</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>27</v>
+        <v>332</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>338</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="C136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="6" t="s">
         <v>345</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>27</v>
+        <v>359</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>365</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>212</v>
+        <v>375</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>275</v>
+        <v>211</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>27</v>
+        <v>274</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>385</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>22</v>
+        <v>384</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>390</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>148</v>
+        <v>398</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>325</v>
+        <v>147</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="D160" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/Execl/_GameConfig.xlsx
+++ b/Execl/_GameConfig.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/project/ckzc_client/public_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ckzc_client\public_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="3140" windowWidth="28080" windowHeight="13060"/>
+    <workbookView xWindow="11085" yWindow="3135" windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="GameConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -35,7 +32,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A41" authorId="0">
+    <comment ref="A41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A75" authorId="1">
+    <comment ref="A75" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A115" authorId="0">
+    <comment ref="A113" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A118" authorId="1">
+    <comment ref="A116" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="421">
   <si>
     <t>描述</t>
   </si>
@@ -543,6 +540,9 @@
     <t>土地竞拍数量(等级，土地数量</t>
   </si>
   <si>
+    <t>1,1;5,2;10,3;15;4,20,5</t>
+  </si>
+  <si>
     <t>土地每次竞拍数量</t>
   </si>
   <si>
@@ -711,28 +711,7 @@
     <t>1,2,4,21,3,18,17;2,2,4,21,3,18,17;3,2,4,21,3,18,17;4,2,4,21,3,18,17;5,2,4,21,3,18,17;6,2,4,21,3,18,17;7,2,4,21,3,18,17;8,2,4,21,3,18,17;9,2,4,21,3,18,17;10,2,4,21,3,18,17;11,2,4,21,3,18,17;12,2,4,21,3,18,17;</t>
   </si>
   <si>
-    <t>水果机单抽</t>
-  </si>
-  <si>
     <t>Fruits</t>
-  </si>
-  <si>
-    <t>2,200</t>
-  </si>
-  <si>
-    <t>水果机十连抽</t>
-  </si>
-  <si>
-    <t>TenFruits</t>
-  </si>
-  <si>
-    <t>2,1800</t>
-  </si>
-  <si>
-    <t>水果机刷新时间（秒）</t>
-  </si>
-  <si>
-    <t>FruitsTime</t>
   </si>
   <si>
     <t>关系等级好感度上限</t>
@@ -1222,13 +1201,7 @@
     <t>5,14,13,3,1,2,10,8,9,4,7,6,11,12</t>
   </si>
   <si>
-    <t>单人偷菜次数（庄园）</t>
-  </si>
-  <si>
     <t>SingleStealTime</t>
-  </si>
-  <si>
-    <t>最多被偷次数（庄园）</t>
   </si>
   <si>
     <t>MaxStealTime</t>
@@ -1635,7 +1608,19 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1,1;5,2;10,3;15,4;20,5</t>
+    <t>单人对同一株作物偷菜个数（庄园）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一株作物最多被偷次数（庄园）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,0;6,100;6,100;6,100;6,100;6,100;6,100;6,100;6,100;6,100;6,100;6,100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果机</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1643,7 +1628,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1722,22 +1707,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1774,10 +1743,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1805,10 +1772,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2110,36 +2075,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M161"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="62.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="62.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="61.5" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="27.95" hidden="1" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="41" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="41.1" hidden="1" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2153,7 +2118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2167,7 +2132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2184,7 +2149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2201,7 +2166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2215,7 +2180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -2229,7 +2194,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -2243,7 +2208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2257,7 +2222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -2271,7 +2236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -2285,7 +2250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -2299,7 +2264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -2313,7 +2278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -2327,7 +2292,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -2341,7 +2306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -2355,7 +2320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -2369,7 +2334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -2383,7 +2348,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -2397,7 +2362,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2411,7 +2376,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2425,7 +2390,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
@@ -2439,7 +2404,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -2453,7 +2418,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -2467,7 +2432,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
@@ -2481,7 +2446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -2495,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
         <v>70</v>
       </c>
@@ -2509,7 +2474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
         <v>72</v>
       </c>
@@ -2523,7 +2488,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
         <v>75</v>
       </c>
@@ -2537,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13">
       <c r="A30" s="2" t="s">
         <v>77</v>
       </c>
@@ -2551,7 +2516,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
         <v>79</v>
       </c>
@@ -2565,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
         <v>81</v>
       </c>
@@ -2580,7 +2545,7 @@
       </c>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>84</v>
       </c>
@@ -2594,7 +2559,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
@@ -2608,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>89</v>
       </c>
@@ -2622,7 +2587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
@@ -2636,7 +2601,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>94</v>
       </c>
@@ -2650,7 +2615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>96</v>
       </c>
@@ -2664,7 +2629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>98</v>
       </c>
@@ -2678,7 +2643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>100</v>
       </c>
@@ -2692,21 +2657,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>103</v>
       </c>
@@ -2720,7 +2685,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>105</v>
       </c>
@@ -2734,7 +2699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>107</v>
       </c>
@@ -2748,7 +2713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>109</v>
       </c>
@@ -2762,7 +2727,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>111</v>
       </c>
@@ -2776,7 +2741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>113</v>
       </c>
@@ -2790,7 +2755,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>116</v>
       </c>
@@ -2804,7 +2769,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>119</v>
       </c>
@@ -2818,7 +2783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50" s="7" t="s">
         <v>121</v>
       </c>
@@ -2832,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51" s="7" t="s">
         <v>123</v>
       </c>
@@ -2846,7 +2811,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52" s="7" t="s">
         <v>126</v>
       </c>
@@ -2860,7 +2825,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53" s="7" t="s">
         <v>128</v>
       </c>
@@ -2874,26 +2839,26 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>14</v>
@@ -2902,12 +2867,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>14</v>
@@ -2916,12 +2881,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>14</v>
@@ -2930,261 +2895,261 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>188</v>
+        <v>420</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>189</v>
@@ -3193,38 +3158,38 @@
         <v>6</v>
       </c>
       <c r="D76" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="3" t="s">
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
         <v>196</v>
       </c>
@@ -3235,150 +3200,150 @@
         <v>6</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="10" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
+      <c r="B80" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="3" t="s">
+      <c r="B81" s="10" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="2" t="s">
+      <c r="C81" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="10" t="s">
+      <c r="C82" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B82" s="10" t="s">
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="11" t="s">
+      <c r="B83" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="11" t="s">
+    <row r="86" spans="1:4">
+      <c r="A86" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="3" t="s">
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="12" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="3" t="s">
+    </row>
+    <row r="89" spans="1:4" ht="15">
+      <c r="A89" s="12" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="12" t="s">
+      <c r="B89" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="12" t="s">
         <v>224</v>
       </c>
@@ -3392,7 +3357,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" s="12" t="s">
         <v>227</v>
       </c>
@@ -3400,13 +3365,13 @@
         <v>228</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" s="12" t="s">
         <v>230</v>
       </c>
@@ -3420,7 +3385,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" s="12" t="s">
         <v>233</v>
       </c>
@@ -3428,13 +3393,13 @@
         <v>234</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" s="12" t="s">
         <v>236</v>
       </c>
@@ -3442,111 +3407,111 @@
         <v>237</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D94" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="12" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="12" t="s">
+      <c r="B95" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="B96" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="12" t="s">
+      <c r="C96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="12" t="s">
+      <c r="C97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D97" s="3" t="s">
+      <c r="C98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B99" s="2" t="s">
+    <row r="100" spans="1:4">
+      <c r="A100" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="12" t="s">
+      <c r="B100" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="3" t="s">
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A101" s="12" t="s">
+      <c r="B101" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="12" t="s">
         <v>255</v>
       </c>
@@ -3554,13 +3519,13 @@
         <v>256</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
         <v>258</v>
       </c>
@@ -3568,97 +3533,97 @@
         <v>259</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D103" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="12" t="s">
+      <c r="B104" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" s="3" t="s">
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" s="3" t="s">
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="2" t="s">
+      <c r="B107" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="2" t="s">
+      <c r="C108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B108" s="2" t="s">
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="2" t="s">
+      <c r="C109" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
         <v>275</v>
       </c>
@@ -3669,505 +3634,505 @@
         <v>14</v>
       </c>
       <c r="D110" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="7" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="2" t="s">
+      <c r="B111" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="B112" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A120" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B120" s="2" t="s">
+      <c r="D121" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D120" s="3" t="s">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122" s="2" t="s">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A123" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D124" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="C126" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C125" s="2" t="s">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A130" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A131" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A132" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A133" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="2" t="s">
+      <c r="D139" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B140" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" s="3" t="s">
+      <c r="C140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="2" t="s">
+    <row r="141" spans="1:4">
+      <c r="A141" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B141" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A141" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D142" s="3" t="s">
+      <c r="C143" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="2" t="s">
+    <row r="144" spans="1:4">
+      <c r="A144" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" s="2" t="s">
+      <c r="C144" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B145" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144" s="3" t="s">
+      <c r="C145" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="2" t="s">
+    <row r="146" spans="1:4">
+      <c r="A146" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A146" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
@@ -4176,214 +4141,186 @@
         <v>366</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4">
       <c r="A147" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B148" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D147" s="3" t="s">
+      <c r="C148" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A148" s="2" t="s">
+      <c r="B149" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="C149" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D148" s="3" t="s">
+      <c r="B150" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="2" t="s">
+      <c r="C150" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B149" s="2" t="s">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="2" t="s">
+      <c r="B151" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="C151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="2" t="s">
+      <c r="B152" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="C152" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="2" t="s">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B153" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D152" s="3" t="s">
+      <c r="C153" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="2" t="s">
+    <row r="154" spans="1:4">
+      <c r="A154" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B154" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154" s="2" t="s">
+      <c r="C154" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D154" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B154" s="2" t="s">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" s="3" t="s">
+      <c r="B155" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A155" s="2" t="s">
+      <c r="C155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B155" s="2" t="s">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" s="3" t="s">
+      <c r="B156" s="2" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A156" s="2" t="s">
+      <c r="C156" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B157" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A157" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="C158" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" s="3" t="s">
+      <c r="D158" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A158" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4">
       <c r="A159" s="2" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>14</v>
+        <v>413</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -4400,7 +4337,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4413,7 +4350,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
